--- a/data/trans_dic/P15_1-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P15_1-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con familiares convivientes con COVID-19</t>
+          <t>Población con familiares convivientes con COVID-19 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>8,15%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,55</t>
+          <t>0,0; 4,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,92</t>
+          <t>0,59; 5,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 4,19</t>
+          <t>1,05; 5,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,6; 12,33</t>
+          <t>5,41; 15,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,54</t>
+          <t>0,0; 3,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,42</t>
+          <t>0,39; 3,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,93; 6,28</t>
+          <t>2,57; 8,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,7; 8,41</t>
+          <t>3,47; 10,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,84</t>
+          <t>0,3; 2,82</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,13</t>
+          <t>0,73; 3,4</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,75; 4,23</t>
+          <t>2,39; 6,62</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,77; 8,99</t>
+          <t>5,56; 11,85</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>11,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>11,94%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,12</t>
+          <t>0,0; 4,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,55</t>
+          <t>0,0; 4,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,93; 7,02</t>
+          <t>0,0; 7,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,8; 19,27</t>
+          <t>6,77; 19,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,56</t>
+          <t>0,0; 3,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,39</t>
+          <t>0,0; 2,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,6; 6,14</t>
+          <t>0,6; 5,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,59; 13,92</t>
+          <t>7,77; 19,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,98</t>
+          <t>0,28; 3,22</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,73</t>
+          <t>0,0; 2,32</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,67; 5,43</t>
+          <t>1,02; 4,91</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,92; 14,4</t>
+          <t>8,45; 16,94</t>
         </is>
       </c>
     </row>
@@ -946,12 +947,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -966,12 +967,12 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>10,09%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -986,12 +987,12 @@
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>8,23%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,42</t>
+          <t>0,0; 20,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 17,88</t>
+          <t>0,0; 22,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 14,16</t>
+          <t>0,0; 19,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 17,16</t>
+          <t>3,29; 24,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,45; 10,01</t>
+          <t>1,44; 15,45</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,47; 14,14</t>
+          <t>3,04; 17,13</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>10,27%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>9,7%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,89</t>
+          <t>0,31; 2,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,99</t>
+          <t>0,56; 3,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,31; 4,31</t>
+          <t>1,4; 5,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,72; 12,74</t>
+          <t>6,78; 14,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,63</t>
+          <t>0,24; 2,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,73</t>
+          <t>0,21; 1,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,44; 5,39</t>
+          <t>2,42; 6,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,68; 9,94</t>
+          <t>6,39; 12,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,35; 1,34</t>
+          <t>0,4; 1,9</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,42</t>
+          <t>0,57; 2,17</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,26; 4,29</t>
+          <t>2,38; 4,96</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,86; 10,52</t>
+          <t>7,59; 12,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1216,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con familiares convivientes con COVID-19 (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>4825</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10001</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>10092</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>38013</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4298</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>6408</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>21988</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>26224</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>9123</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>16408</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>32080</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>64237</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15116</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2543; 23183</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3829; 21153</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>20613; 60314</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15080</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1999; 17633</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>10837; 36572</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>14144; 42928</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2386; 22622</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6898; 31884</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>18838; 52148</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>43865; 93386</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3018</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3475</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>8722</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>37505</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3761</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2079</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7917</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>41006</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>6779</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5554</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>16639</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>78511</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 14950</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16241</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 23322</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>21838; 62832</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 13054</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 11160</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2016; 18870</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>26025; 63896</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1849; 21110</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 18225</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>6676; 32240</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>55573; 111420</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3576</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>5507</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4983</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>8331</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>8560</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>13837</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16271</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 19177</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15563</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2714; 19992</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2327; 24904</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>5114; 28799</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>7843</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>13476</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>22391</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>81024</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>8059</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>8486</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>34888</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>75561</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>15902</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>21962</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>57279</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>156585</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2379; 20383</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4997; 29140</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>10667; 42253</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>53498; 112509</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2072; 19557</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2139; 19497</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>20366; 54402</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>52741; 101406</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>6509; 30844</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>11039; 41791</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>38275; 79653</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>122560; 198278</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>